--- a/biology/Microbiologie/Aphanizomenon_flosaquae/Aphanizomenon_flosaquae.xlsx
+++ b/biology/Microbiologie/Aphanizomenon_flosaquae/Aphanizomenon_flosaquae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aphanizomenon flosaquae, ou algue bleu-vert du lac Klamath (AFA)[4], est une espèce de cyanobactéries de la famille des Aphanizomenonaceae.
-L'absence de microcystine doit être démontré pour chaque lot commercialisé[4].
-Elle augmente le taux de cellules-souches en circulation[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphanizomenon flosaquae, ou algue bleu-vert du lac Klamath (AFA), est une espèce de cyanobactéries de la famille des Aphanizomenonaceae.
+L'absence de microcystine doit être démontré pour chaque lot commercialisé.
+Elle augmente le taux de cellules-souches en circulation.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Liste des variétés et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 mai 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 mai 2018) :
 variété Aphanizomenon flos-aquae var. flos-aquae
 variété Aphanizomenon flos-aquae var. klebahnii
-Selon BioLib                    (14 mai 2018)[2] :
+Selon BioLib                    (14 mai 2018) :
 variété Aphanizomenon flos-aquae var. klebahnii Elenkin</t>
         </is>
       </c>
